--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fa9d05d6761d51c/Escritorio/Data Relampago/Resultado Septiembre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C651CF-F341-4981-A4EF-3CCD3129A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{44C651CF-F341-4981-A4EF-3CCD3129A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A7D834-DCF0-4D57-877B-AF7BB7828F44}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21228" windowHeight="12456" xr2:uid="{8C751B5B-3616-4D2E-9E49-AB9750B9953D}"/>
   </bookViews>
@@ -1750,7 +1750,7 @@
   <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,6 +1854,9 @@
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
       <c r="D2" s="7">
         <v>8000010070042</v>
       </c>
@@ -1936,6 +1939,9 @@
       <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
       <c r="D3" s="7">
         <v>568965895689</v>
       </c>
@@ -2015,6 +2021,9 @@
       <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
       <c r="D4" s="7">
         <v>568965895689</v>
       </c>
@@ -2094,6 +2103,9 @@
       <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
@@ -2173,6 +2185,9 @@
       <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2252,6 +2267,9 @@
       <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
       <c r="D7" s="7">
         <v>1067120736731</v>
       </c>
@@ -2331,6 +2349,9 @@
       <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
       <c r="D8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2410,6 +2431,9 @@
       <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
       <c r="D9" s="7">
         <v>8000010090008</v>
       </c>
@@ -2489,6 +2513,9 @@
       <c r="B10" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
@@ -2568,6 +2595,9 @@
       <c r="B11" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>55</v>
       </c>
@@ -2647,6 +2677,9 @@
       <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
       <c r="D12" s="7">
         <v>4457798326383</v>
       </c>
@@ -2726,6 +2759,9 @@
       <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
@@ -2805,6 +2841,9 @@
       <c r="B14" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
       <c r="D14" s="7">
         <v>9557829855670</v>
       </c>
@@ -2884,6 +2923,9 @@
       <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
       <c r="D15" s="7" t="s">
         <v>67</v>
       </c>
@@ -2963,6 +3005,9 @@
       <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
       <c r="D16" s="7" t="s">
         <v>70</v>
       </c>
@@ -3042,6 +3087,9 @@
       <c r="B17" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
       <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
@@ -3121,6 +3169,9 @@
       <c r="B18" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
       <c r="D18" s="7" t="s">
         <v>75</v>
       </c>
@@ -3200,6 +3251,9 @@
       <c r="B19" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
       <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
@@ -3279,6 +3333,9 @@
       <c r="B20" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
       <c r="D20" s="7">
         <v>9557829855670</v>
       </c>
@@ -3358,6 +3415,9 @@
       <c r="B21" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
       <c r="D21" s="7">
         <v>9557829855671</v>
       </c>
@@ -3437,6 +3497,9 @@
       <c r="B22" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
       <c r="D22" s="7" t="s">
         <v>84</v>
       </c>
@@ -3516,6 +3579,9 @@
       <c r="B23" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
       <c r="D23" s="7" t="s">
         <v>84</v>
       </c>
@@ -3595,6 +3661,9 @@
       <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
       <c r="D24" s="7" t="s">
         <v>87</v>
       </c>
@@ -3674,6 +3743,9 @@
       <c r="B25" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
       <c r="D25" s="7" t="s">
         <v>38</v>
       </c>
@@ -3753,6 +3825,9 @@
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
       <c r="D26" s="7" t="s">
         <v>91</v>
       </c>
@@ -3832,6 +3907,9 @@
       <c r="B27" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
       <c r="D27" s="7" t="s">
         <v>87</v>
       </c>
@@ -3911,6 +3989,9 @@
       <c r="B28" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
       <c r="D28" s="7" t="s">
         <v>96</v>
       </c>
@@ -3990,6 +4071,9 @@
       <c r="B29" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
       <c r="D29" s="7" t="s">
         <v>96</v>
       </c>
@@ -4069,6 +4153,9 @@
       <c r="B30" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
       <c r="D30" s="7" t="s">
         <v>96</v>
       </c>
@@ -4148,6 +4235,9 @@
       <c r="B31" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
       <c r="D31" s="7" t="s">
         <v>96</v>
       </c>
@@ -4227,6 +4317,9 @@
       <c r="B32" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
       <c r="D32" s="7" t="s">
         <v>99</v>
       </c>
@@ -4306,6 +4399,9 @@
       <c r="B33" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
       <c r="D33" s="7" t="s">
         <v>51</v>
       </c>
@@ -4385,6 +4481,9 @@
       <c r="B34" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
       <c r="D34" s="16">
         <v>2082004550659</v>
       </c>
@@ -4464,6 +4563,9 @@
       <c r="B35" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
       <c r="D35" s="7" t="s">
         <v>105</v>
       </c>
@@ -4543,6 +4645,9 @@
       <c r="B36" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="C36">
+        <v>22</v>
+      </c>
       <c r="D36" s="7" t="s">
         <v>108</v>
       </c>
@@ -4622,6 +4727,9 @@
       <c r="B37" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="C37">
+        <v>22</v>
+      </c>
       <c r="D37" s="7" t="s">
         <v>112</v>
       </c>
@@ -4701,6 +4809,9 @@
       <c r="B38" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
       <c r="D38" s="7">
         <v>33221423232354</v>
       </c>
@@ -4783,6 +4894,9 @@
       <c r="B39" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>84</v>
       </c>
@@ -4862,6 +4976,9 @@
       <c r="B40" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
       <c r="D40" s="7" t="s">
         <v>116</v>
       </c>
@@ -4941,6 +5058,9 @@
       <c r="B41" s="6" t="s">
         <v>118</v>
       </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
       <c r="D41" s="7">
         <v>1647767907994</v>
       </c>
@@ -5020,6 +5140,9 @@
       <c r="B42" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
       <c r="D42" s="7" t="s">
         <v>122</v>
       </c>
@@ -5099,6 +5222,9 @@
       <c r="B43" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>125</v>
       </c>
@@ -5181,6 +5307,9 @@
       <c r="B44" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
       <c r="D44" s="7" t="s">
         <v>128</v>
       </c>
@@ -5260,6 +5389,9 @@
       <c r="B45" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
       <c r="D45" s="7" t="s">
         <v>128</v>
       </c>
@@ -5339,6 +5471,9 @@
       <c r="B46" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>132</v>
       </c>
@@ -5418,6 +5553,9 @@
       <c r="B47" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
       <c r="D47" s="7" t="s">
         <v>132</v>
       </c>
@@ -5497,6 +5635,9 @@
       <c r="B48" s="6" t="s">
         <v>135</v>
       </c>
+      <c r="C48">
+        <v>19</v>
+      </c>
       <c r="D48" s="7" t="s">
         <v>136</v>
       </c>
@@ -5576,6 +5717,9 @@
       <c r="B49" s="6" t="s">
         <v>138</v>
       </c>
+      <c r="C49">
+        <v>19</v>
+      </c>
       <c r="D49" s="7" t="s">
         <v>139</v>
       </c>
@@ -5655,6 +5799,9 @@
       <c r="B50" s="6" t="s">
         <v>138</v>
       </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
       <c r="D50" s="7" t="s">
         <v>139</v>
       </c>
@@ -5734,6 +5881,9 @@
       <c r="B51" s="6" t="s">
         <v>138</v>
       </c>
+      <c r="C51">
+        <v>19</v>
+      </c>
       <c r="D51" s="7" t="s">
         <v>139</v>
       </c>
@@ -5813,6 +5963,9 @@
       <c r="B52" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
       <c r="D52" s="7" t="s">
         <v>144</v>
       </c>
@@ -5895,6 +6048,9 @@
       <c r="B53" s="6" t="s">
         <v>146</v>
       </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
       <c r="D53" s="7" t="s">
         <v>147</v>
       </c>
@@ -5974,6 +6130,9 @@
       <c r="B54" s="6" t="s">
         <v>146</v>
       </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
       <c r="D54" s="7" t="s">
         <v>147</v>
       </c>
@@ -6053,6 +6212,9 @@
       <c r="B55" s="6" t="s">
         <v>149</v>
       </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
       <c r="D55" s="7" t="s">
         <v>150</v>
       </c>
@@ -6132,6 +6294,9 @@
       <c r="B56" s="6" t="s">
         <v>152</v>
       </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
       <c r="D56" s="7" t="s">
         <v>153</v>
       </c>
@@ -6211,6 +6376,9 @@
       <c r="B57" s="6" t="s">
         <v>156</v>
       </c>
+      <c r="C57">
+        <v>17</v>
+      </c>
       <c r="D57" s="7" t="s">
         <v>157</v>
       </c>
@@ -6293,6 +6461,9 @@
       <c r="B58" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="C58">
+        <v>17</v>
+      </c>
       <c r="D58" s="7" t="s">
         <v>38</v>
       </c>
@@ -6372,6 +6543,9 @@
       <c r="B59" s="6" t="s">
         <v>160</v>
       </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
       <c r="D59" s="7" t="s">
         <v>161</v>
       </c>
@@ -6451,6 +6625,9 @@
       <c r="B60" s="6" t="s">
         <v>163</v>
       </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
       <c r="D60" s="7" t="s">
         <v>164</v>
       </c>
@@ -6530,6 +6707,9 @@
       <c r="B61" s="6" t="s">
         <v>166</v>
       </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
       <c r="D61" s="7" t="s">
         <v>147</v>
       </c>
@@ -6609,6 +6789,9 @@
       <c r="B62" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
       <c r="D62" s="7" t="s">
         <v>168</v>
       </c>
@@ -6688,6 +6871,9 @@
       <c r="B63" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
       <c r="D63" s="7" t="s">
         <v>168</v>
       </c>
@@ -6767,6 +6953,9 @@
       <c r="B64" s="6" t="s">
         <v>170</v>
       </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
       <c r="D64" s="7" t="s">
         <v>171</v>
       </c>
@@ -6849,6 +7038,9 @@
       <c r="B65" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
       <c r="D65" s="7" t="s">
         <v>174</v>
       </c>
@@ -6928,6 +7120,9 @@
       <c r="B66" s="6" t="s">
         <v>176</v>
       </c>
+      <c r="C66">
+        <v>14</v>
+      </c>
       <c r="D66" s="7" t="s">
         <v>177</v>
       </c>
@@ -7007,6 +7202,9 @@
       <c r="B67" s="6" t="s">
         <v>179</v>
       </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
       <c r="D67" s="7" t="s">
         <v>70</v>
       </c>
@@ -7086,6 +7284,9 @@
       <c r="B68" s="6" t="s">
         <v>181</v>
       </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
       <c r="D68" s="7" t="s">
         <v>182</v>
       </c>
@@ -7165,6 +7366,9 @@
       <c r="B69" s="6" t="s">
         <v>184</v>
       </c>
+      <c r="C69">
+        <v>13</v>
+      </c>
       <c r="D69" s="7" t="s">
         <v>185</v>
       </c>
@@ -7244,6 +7448,9 @@
       <c r="B70" s="6" t="s">
         <v>187</v>
       </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
       <c r="D70" s="7" t="s">
         <v>188</v>
       </c>
@@ -7323,6 +7530,9 @@
       <c r="B71" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
       <c r="D71" s="7" t="s">
         <v>38</v>
       </c>
@@ -7402,6 +7612,9 @@
       <c r="B72" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
       <c r="D72" s="7" t="s">
         <v>192</v>
       </c>
@@ -7481,6 +7694,9 @@
       <c r="B73" s="6" t="s">
         <v>194</v>
       </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
       <c r="D73" s="7" t="s">
         <v>105</v>
       </c>
@@ -7560,6 +7776,9 @@
       <c r="B74" s="6" t="s">
         <v>195</v>
       </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
       <c r="D74" s="7">
         <v>8000008190255</v>
       </c>
@@ -7639,6 +7858,9 @@
       <c r="B75" s="6" t="s">
         <v>197</v>
       </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
       <c r="D75" s="7" t="s">
         <v>198</v>
       </c>
@@ -7718,6 +7940,9 @@
       <c r="B76" s="6" t="s">
         <v>201</v>
       </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
       <c r="D76" s="7" t="s">
         <v>202</v>
       </c>
@@ -7797,6 +8022,9 @@
       <c r="B77" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
       <c r="D77" s="7">
         <v>8000010070012</v>
       </c>
@@ -7876,6 +8104,9 @@
       <c r="B78" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
       <c r="D78" s="7" t="s">
         <v>207</v>
       </c>
@@ -7955,6 +8186,9 @@
       <c r="B79" s="6" t="s">
         <v>209</v>
       </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
       <c r="D79" s="7" t="s">
         <v>210</v>
       </c>
@@ -8034,6 +8268,9 @@
       <c r="B80" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
       <c r="D80" s="7" t="s">
         <v>84</v>
       </c>
@@ -8113,6 +8350,9 @@
       <c r="B81" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
       <c r="D81" s="7" t="s">
         <v>84</v>
       </c>
@@ -8192,6 +8432,9 @@
       <c r="B82" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
       <c r="D82" s="7" t="s">
         <v>84</v>
       </c>
@@ -8271,6 +8514,9 @@
       <c r="B83" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
       <c r="D83" s="7" t="s">
         <v>84</v>
       </c>
@@ -8350,6 +8596,9 @@
       <c r="B84" s="6" t="s">
         <v>216</v>
       </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
       <c r="D84" s="7" t="s">
         <v>207</v>
       </c>
@@ -8429,6 +8678,9 @@
       <c r="B85" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
       <c r="D85" s="7" t="s">
         <v>87</v>
       </c>
@@ -8508,6 +8760,9 @@
       <c r="B86" s="6" t="s">
         <v>218</v>
       </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
       <c r="D86" s="7" t="s">
         <v>112</v>
       </c>
@@ -8587,6 +8842,9 @@
       <c r="B87" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
       <c r="D87" s="7" t="s">
         <v>153</v>
       </c>
@@ -8666,6 +8924,9 @@
       <c r="B88" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
       <c r="D88" s="7" t="s">
         <v>221</v>
       </c>
@@ -8745,6 +9006,9 @@
       <c r="B89" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
       <c r="D89" s="7">
         <v>800010070075</v>
       </c>
@@ -8824,6 +9088,9 @@
       <c r="B90" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
       <c r="D90" s="7" t="s">
         <v>221</v>
       </c>
@@ -8903,6 +9170,9 @@
       <c r="B91" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
       <c r="D91" s="7">
         <v>800010100099</v>
       </c>
@@ -8982,6 +9252,9 @@
       <c r="B92" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
       <c r="D92" s="7">
         <v>800010070075</v>
       </c>
@@ -9061,6 +9334,9 @@
       <c r="B93" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
       <c r="D93" s="7" t="s">
         <v>221</v>
       </c>
@@ -9140,6 +9416,9 @@
       <c r="B94" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
       <c r="D94" s="7" t="s">
         <v>229</v>
       </c>
@@ -9219,6 +9498,9 @@
       <c r="B95" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
       <c r="D95" s="7" t="s">
         <v>230</v>
       </c>
@@ -9298,6 +9580,9 @@
       <c r="B96" s="6" t="s">
         <v>231</v>
       </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
       <c r="D96" s="7" t="s">
         <v>182</v>
       </c>
@@ -9377,6 +9662,9 @@
       <c r="B97" s="6" t="s">
         <v>232</v>
       </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
       <c r="D97" s="7" t="s">
         <v>233</v>
       </c>
@@ -9456,6 +9744,9 @@
       <c r="B98" s="6" t="s">
         <v>235</v>
       </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
       <c r="D98" s="7" t="s">
         <v>236</v>
       </c>
@@ -9535,6 +9826,9 @@
       <c r="B99" s="6" t="s">
         <v>238</v>
       </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
       <c r="D99" s="7" t="s">
         <v>239</v>
       </c>
@@ -9614,6 +9908,9 @@
       <c r="B100" s="6" t="s">
         <v>238</v>
       </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
       <c r="D100" s="7" t="s">
         <v>239</v>
       </c>
@@ -9693,6 +9990,9 @@
       <c r="B101" s="6" t="s">
         <v>238</v>
       </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
       <c r="D101" s="7" t="s">
         <v>239</v>
       </c>
@@ -9772,6 +10072,9 @@
       <c r="B102" s="6" t="s">
         <v>238</v>
       </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
       <c r="D102" s="7" t="s">
         <v>239</v>
       </c>
@@ -9851,6 +10154,9 @@
       <c r="B103" s="6" t="s">
         <v>243</v>
       </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
       <c r="D103" s="7" t="s">
         <v>230</v>
       </c>
@@ -9930,6 +10236,9 @@
       <c r="B104" s="6" t="s">
         <v>245</v>
       </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
       <c r="D104" s="7" t="s">
         <v>246</v>
       </c>
@@ -10009,6 +10318,9 @@
       <c r="B105" s="6" t="s">
         <v>248</v>
       </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
       <c r="D105" s="7">
         <v>8741685441215</v>
       </c>
@@ -10088,6 +10400,9 @@
       <c r="B106" s="6" t="s">
         <v>250</v>
       </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
       <c r="D106" s="7" t="s">
         <v>38</v>
       </c>
@@ -10167,6 +10482,9 @@
       <c r="B107" s="6" t="s">
         <v>251</v>
       </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
       <c r="D107" s="7" t="s">
         <v>252</v>
       </c>
@@ -10246,6 +10564,9 @@
       <c r="B108" s="6" t="s">
         <v>254</v>
       </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
       <c r="D108" s="7">
         <v>8000010090025</v>
       </c>
@@ -10325,6 +10646,9 @@
       <c r="B109" s="6" t="s">
         <v>255</v>
       </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
       <c r="D109" s="7" t="s">
         <v>256</v>
       </c>
@@ -10404,6 +10728,9 @@
       <c r="B110" s="6" t="s">
         <v>258</v>
       </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
       <c r="D110" s="7" t="s">
         <v>259</v>
       </c>
@@ -10483,6 +10810,9 @@
       <c r="B111" s="6" t="s">
         <v>258</v>
       </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
       <c r="D111" s="7" t="s">
         <v>259</v>
       </c>
@@ -10562,6 +10892,9 @@
       <c r="B112" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
       <c r="D112" s="7" t="s">
         <v>116</v>
       </c>
@@ -10641,6 +10974,9 @@
       <c r="B113" s="6" t="s">
         <v>263</v>
       </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
       <c r="D113" s="7">
         <v>8000010070012</v>
       </c>
@@ -10720,6 +11056,9 @@
       <c r="B114" s="17">
         <v>45896.602152777778</v>
       </c>
+      <c r="C114">
+        <v>27</v>
+      </c>
       <c r="D114" s="18" t="s">
         <v>266</v>
       </c>
@@ -10795,6 +11134,9 @@
       <c r="B115" s="17">
         <v>45896.626736111109</v>
       </c>
+      <c r="C115">
+        <v>27</v>
+      </c>
       <c r="D115" s="18" t="s">
         <v>268</v>
       </c>
@@ -10873,6 +11215,9 @@
       <c r="B116" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C116">
+        <v>26</v>
+      </c>
       <c r="D116" s="18" t="s">
         <v>67</v>
       </c>
@@ -10948,6 +11293,9 @@
       <c r="B117" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C117">
+        <v>26</v>
+      </c>
       <c r="D117" s="18" t="s">
         <v>271</v>
       </c>
@@ -11023,6 +11371,9 @@
       <c r="B118" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C118">
+        <v>26</v>
+      </c>
       <c r="D118" s="18" t="s">
         <v>271</v>
       </c>
@@ -11098,6 +11449,9 @@
       <c r="B119" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C119">
+        <v>26</v>
+      </c>
       <c r="D119" s="18" t="s">
         <v>271</v>
       </c>
@@ -11173,6 +11527,9 @@
       <c r="B120" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C120">
+        <v>26</v>
+      </c>
       <c r="D120" s="18" t="s">
         <v>67</v>
       </c>
@@ -11248,6 +11605,9 @@
       <c r="B121" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C121">
+        <v>26</v>
+      </c>
       <c r="D121" s="18" t="s">
         <v>67</v>
       </c>
@@ -11323,6 +11683,9 @@
       <c r="B122" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C122">
+        <v>26</v>
+      </c>
       <c r="D122" s="18" t="s">
         <v>67</v>
       </c>
@@ -11398,6 +11761,9 @@
       <c r="B123" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C123">
+        <v>26</v>
+      </c>
       <c r="D123" s="18" t="s">
         <v>271</v>
       </c>
@@ -11473,6 +11839,9 @@
       <c r="B124" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C124">
+        <v>26</v>
+      </c>
       <c r="D124" s="18" t="s">
         <v>67</v>
       </c>
@@ -11548,6 +11917,9 @@
       <c r="B125" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C125">
+        <v>26</v>
+      </c>
       <c r="D125" s="18" t="s">
         <v>271</v>
       </c>
@@ -11623,6 +11995,9 @@
       <c r="B126" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C126">
+        <v>26</v>
+      </c>
       <c r="D126" s="18" t="s">
         <v>67</v>
       </c>
@@ -11698,6 +12073,9 @@
       <c r="B127" s="17">
         <v>45895.27957175926</v>
       </c>
+      <c r="C127">
+        <v>26</v>
+      </c>
       <c r="D127" s="18" t="s">
         <v>271</v>
       </c>
@@ -11773,6 +12151,9 @@
       <c r="B128" s="17">
         <v>45891.627465277779</v>
       </c>
+      <c r="C128">
+        <v>22</v>
+      </c>
       <c r="D128" s="7">
         <v>2082004550659</v>
       </c>
@@ -11848,6 +12229,9 @@
       <c r="B129" s="17">
         <v>45892.846203703702</v>
       </c>
+      <c r="C129">
+        <v>23</v>
+      </c>
       <c r="D129" s="18" t="s">
         <v>274</v>
       </c>
@@ -11923,6 +12307,9 @@
       <c r="B130" s="17">
         <v>45893.686469907407</v>
       </c>
+      <c r="C130">
+        <v>24</v>
+      </c>
       <c r="D130" s="7">
         <v>8000008189310</v>
       </c>
@@ -11998,6 +12385,9 @@
       <c r="B131" s="17">
         <v>45893.686469907407</v>
       </c>
+      <c r="C131">
+        <v>24</v>
+      </c>
       <c r="D131" s="18" t="s">
         <v>277</v>
       </c>
@@ -12073,6 +12463,9 @@
       <c r="B132" s="17">
         <v>45893.686469907407</v>
       </c>
+      <c r="C132">
+        <v>24</v>
+      </c>
       <c r="D132" s="18" t="s">
         <v>277</v>
       </c>
@@ -12148,6 +12541,9 @@
       <c r="B133" s="17">
         <v>45890.52107638889</v>
       </c>
+      <c r="C133">
+        <v>21</v>
+      </c>
       <c r="D133" s="18" t="s">
         <v>279</v>
       </c>
@@ -12182,7 +12578,7 @@
         <v>18487.394957983193</v>
       </c>
       <c r="Q133" s="14">
-        <f t="shared" ref="Q133:Q134" si="26">(0.65*P133)</f>
+        <f t="shared" ref="Q133" si="26">(0.65*P133)</f>
         <v>12016.806722689076</v>
       </c>
       <c r="R133" s="14">
@@ -12225,6 +12621,9 @@
       </c>
       <c r="B134" s="17">
         <v>45890.608587962961</v>
+      </c>
+      <c r="C134">
+        <v>22</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>281</v>
@@ -12301,6 +12700,9 @@
       <c r="B135" s="17">
         <v>45889.081875000003</v>
       </c>
+      <c r="C135">
+        <v>20</v>
+      </c>
       <c r="D135" s="18" t="s">
         <v>283</v>
       </c>
@@ -12376,6 +12778,9 @@
       <c r="B136" s="17">
         <v>45889.807083333333</v>
       </c>
+      <c r="C136">
+        <v>19</v>
+      </c>
       <c r="D136" s="7">
         <v>8000008230067</v>
       </c>
@@ -12454,6 +12859,9 @@
       <c r="B137" s="17">
         <v>45882.973819444444</v>
       </c>
+      <c r="C137">
+        <v>18</v>
+      </c>
       <c r="D137" s="18" t="s">
         <v>259</v>
       </c>
@@ -12529,6 +12937,9 @@
       <c r="B138" s="17">
         <v>45886.809421296297</v>
       </c>
+      <c r="C138">
+        <v>17</v>
+      </c>
       <c r="D138" s="18" t="s">
         <v>286</v>
       </c>
@@ -12604,6 +13015,9 @@
       <c r="B139" s="17">
         <v>45886.809421296297</v>
       </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
       <c r="D139" s="18" t="s">
         <v>286</v>
       </c>
@@ -12679,6 +13093,9 @@
       <c r="B140" s="17">
         <v>45878.677789351852</v>
       </c>
+      <c r="C140">
+        <v>9</v>
+      </c>
       <c r="D140" s="7">
         <v>8000008211714</v>
       </c>
@@ -12754,6 +13171,9 @@
       <c r="B141" s="17">
         <v>45875.356145833342</v>
       </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
       <c r="D141" s="18" t="s">
         <v>289</v>
       </c>
@@ -12829,6 +13249,9 @@
       <c r="B142" s="17">
         <v>45875.877268518518</v>
       </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
       <c r="D142" s="7">
         <v>2082005399905</v>
       </c>
@@ -12904,6 +13327,9 @@
       <c r="B143" s="17">
         <v>45874.6487037037</v>
       </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
       <c r="D143" s="18" t="s">
         <v>292</v>
       </c>
@@ -12979,6 +13405,9 @@
       <c r="B144" s="17">
         <v>45871.728842592587</v>
       </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
       <c r="D144" s="18" t="s">
         <v>294</v>
       </c>
@@ -13057,6 +13486,9 @@
       <c r="B145" s="17">
         <v>45872.687627314823</v>
       </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
       <c r="D145" s="18" t="s">
         <v>296</v>
       </c>
@@ -13134,6 +13566,9 @@
       </c>
       <c r="B146" s="25" t="s">
         <v>299</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
       </c>
       <c r="D146" s="26" t="s">
         <v>51</v>
@@ -13212,6 +13647,9 @@
       <c r="B147" s="25" t="s">
         <v>301</v>
       </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
       <c r="D147" s="26" t="s">
         <v>302</v>
       </c>
@@ -13289,6 +13727,9 @@
       <c r="B148" s="25" t="s">
         <v>304</v>
       </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
       <c r="D148" s="26" t="s">
         <v>185</v>
       </c>
@@ -13364,6 +13805,9 @@
       <c r="B149" s="25" t="s">
         <v>306</v>
       </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
       <c r="D149" s="26" t="s">
         <v>75</v>
       </c>
@@ -13442,6 +13886,9 @@
       <c r="B150" s="25" t="s">
         <v>307</v>
       </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
       <c r="D150" s="26" t="s">
         <v>185</v>
       </c>
@@ -13517,6 +13964,9 @@
       <c r="B151" s="25" t="s">
         <v>308</v>
       </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
       <c r="D151" s="26" t="s">
         <v>185</v>
       </c>
@@ -13594,6 +14044,9 @@
       <c r="B152" s="25" t="s">
         <v>309</v>
       </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
       <c r="D152" s="26" t="s">
         <v>185</v>
       </c>
@@ -13671,6 +14124,9 @@
       <c r="B153" s="25" t="s">
         <v>310</v>
       </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
       <c r="D153" s="26" t="s">
         <v>185</v>
       </c>
@@ -13748,6 +14204,9 @@
       <c r="B154" s="25" t="s">
         <v>312</v>
       </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
       <c r="D154" s="26" t="s">
         <v>185</v>
       </c>
@@ -13826,6 +14285,9 @@
       <c r="B155" s="25" t="s">
         <v>313</v>
       </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
       <c r="D155" s="26" t="s">
         <v>314</v>
       </c>
@@ -13903,6 +14365,9 @@
       <c r="B156" s="25" t="s">
         <v>316</v>
       </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
       <c r="D156" s="26" t="s">
         <v>317</v>
       </c>
@@ -13980,6 +14445,9 @@
       <c r="B157" s="25" t="s">
         <v>319</v>
       </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
       <c r="D157" s="26" t="s">
         <v>320</v>
       </c>
@@ -14057,6 +14525,9 @@
       <c r="B158" s="25" t="s">
         <v>322</v>
       </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
       <c r="D158" s="26" t="s">
         <v>323</v>
       </c>
@@ -14138,6 +14609,9 @@
       <c r="B159" s="25" t="s">
         <v>325</v>
       </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
       <c r="D159" s="26" t="s">
         <v>326</v>
       </c>
@@ -14215,6 +14689,9 @@
       <c r="B160" s="25" t="s">
         <v>328</v>
       </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
       <c r="D160" s="26" t="s">
         <v>320</v>
       </c>
@@ -14292,6 +14769,9 @@
       <c r="B161" s="25" t="s">
         <v>329</v>
       </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
       <c r="D161" s="26" t="s">
         <v>185</v>
       </c>
@@ -14367,6 +14847,9 @@
       <c r="B162" s="25" t="s">
         <v>330</v>
       </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
       <c r="D162" s="26" t="s">
         <v>164</v>
       </c>
@@ -14444,6 +14927,9 @@
       <c r="B163" s="25" t="s">
         <v>332</v>
       </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
       <c r="D163" s="26" t="s">
         <v>333</v>
       </c>
@@ -14521,6 +15007,9 @@
       <c r="B164" s="25" t="s">
         <v>335</v>
       </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
       <c r="D164" s="26" t="s">
         <v>185</v>
       </c>
@@ -14599,6 +15088,9 @@
       <c r="B165" s="25" t="s">
         <v>336</v>
       </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
       <c r="D165" s="26" t="s">
         <v>337</v>
       </c>
@@ -14676,6 +15168,9 @@
       <c r="B166" s="25" t="s">
         <v>339</v>
       </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
       <c r="D166" s="26" t="s">
         <v>259</v>
       </c>
@@ -14753,6 +15248,9 @@
       <c r="B167" s="25" t="s">
         <v>341</v>
       </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
       <c r="D167" s="26" t="s">
         <v>333</v>
       </c>
@@ -14830,6 +15328,9 @@
       <c r="B168" s="25" t="s">
         <v>342</v>
       </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
       <c r="D168" s="26" t="s">
         <v>185</v>
       </c>
@@ -14907,6 +15408,9 @@
       <c r="B169" s="25" t="s">
         <v>343</v>
       </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
       <c r="D169" s="26" t="s">
         <v>344</v>
       </c>
@@ -14984,6 +15488,9 @@
       <c r="B170" s="25" t="s">
         <v>346</v>
       </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
       <c r="D170" s="26" t="s">
         <v>185</v>
       </c>
@@ -15061,6 +15568,9 @@
       <c r="B171" s="25" t="s">
         <v>347</v>
       </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
       <c r="D171" s="26" t="s">
         <v>348</v>
       </c>
@@ -15138,6 +15648,9 @@
       <c r="B172" s="17">
         <v>45896</v>
       </c>
+      <c r="C172">
+        <v>27</v>
+      </c>
       <c r="D172" s="7">
         <v>8000008224462</v>
       </c>
@@ -15214,6 +15727,9 @@
       <c r="B173" s="17">
         <v>45886</v>
       </c>
+      <c r="C173">
+        <v>17</v>
+      </c>
       <c r="D173" s="7">
         <v>2082004550437</v>
       </c>
@@ -15290,6 +15806,9 @@
       <c r="B174" s="17">
         <v>45885</v>
       </c>
+      <c r="C174">
+        <v>16</v>
+      </c>
       <c r="D174" s="7">
         <v>8000010070034</v>
       </c>
@@ -15366,6 +15885,9 @@
       <c r="B175" s="17">
         <v>45885</v>
       </c>
+      <c r="C175">
+        <v>16</v>
+      </c>
       <c r="D175" s="7">
         <v>2082003685475</v>
       </c>
@@ -15442,6 +15964,9 @@
       <c r="B176" s="17">
         <v>45882</v>
       </c>
+      <c r="C176">
+        <v>13</v>
+      </c>
       <c r="D176" s="7">
         <v>8000010010025</v>
       </c>
@@ -15518,6 +16043,9 @@
       <c r="B177" s="17">
         <v>45881</v>
       </c>
+      <c r="C177">
+        <v>12</v>
+      </c>
       <c r="D177" s="7">
         <v>8000008223496</v>
       </c>
@@ -15594,6 +16122,9 @@
       <c r="B178" s="17">
         <v>45878</v>
       </c>
+      <c r="C178">
+        <v>9</v>
+      </c>
       <c r="D178" s="7">
         <v>8000008189907</v>
       </c>
@@ -15674,6 +16205,9 @@
       <c r="B179" s="17">
         <v>45874</v>
       </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
       <c r="D179" s="7">
         <v>8000008224264</v>
       </c>
@@ -15754,6 +16288,9 @@
       <c r="B180" s="17">
         <v>45874</v>
       </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
       <c r="D180" s="7">
         <v>8000008224264</v>
       </c>
@@ -15834,6 +16371,9 @@
       <c r="B181" s="17">
         <v>45870</v>
       </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
       <c r="D181" s="7">
         <v>8000008243104</v>
       </c>
@@ -15914,6 +16454,9 @@
       <c r="B182" s="6" t="s">
         <v>360</v>
       </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
       <c r="D182" s="7">
         <v>8000010100007</v>
       </c>
@@ -15984,6 +16527,9 @@
       </c>
       <c r="B183" s="6" t="s">
         <v>362</v>
+      </c>
+      <c r="C183">
+        <v>8</v>
       </c>
       <c r="D183" s="7">
         <v>6797884908824</v>
@@ -16057,6 +16603,9 @@
       <c r="B184" s="6" t="s">
         <v>364</v>
       </c>
+      <c r="C184">
+        <v>12</v>
+      </c>
       <c r="D184" s="7"/>
       <c r="E184" t="s">
         <v>365</v>
@@ -16131,6 +16680,9 @@
       <c r="B185" s="6" t="s">
         <v>366</v>
       </c>
+      <c r="C185">
+        <v>12</v>
+      </c>
       <c r="D185" s="7">
         <v>8000010100007</v>
       </c>
@@ -16201,6 +16753,9 @@
       </c>
       <c r="B186" s="6" t="s">
         <v>367</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
       </c>
       <c r="D186" s="7">
         <v>800010070068</v>
@@ -16274,6 +16829,9 @@
       <c r="B187" s="6" t="s">
         <v>369</v>
       </c>
+      <c r="C187">
+        <v>12</v>
+      </c>
       <c r="D187" s="7">
         <v>800010070075</v>
       </c>
@@ -16346,6 +16904,9 @@
       <c r="B188" s="6" t="s">
         <v>371</v>
       </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
       <c r="D188" s="7">
         <v>8000010120003</v>
       </c>
@@ -16418,6 +16979,9 @@
       <c r="B189" s="6" t="s">
         <v>373</v>
       </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
       <c r="D189" s="7">
         <v>2082004550659</v>
       </c>
@@ -16490,6 +17054,9 @@
       <c r="B190" s="6" t="s">
         <v>375</v>
       </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
       <c r="D190" s="7">
         <v>8000010070042</v>
       </c>
@@ -16562,6 +17129,9 @@
       <c r="B191" s="6" t="s">
         <v>377</v>
       </c>
+      <c r="C191">
+        <v>13</v>
+      </c>
       <c r="D191" s="7">
         <v>8000010100036</v>
       </c>
@@ -16634,6 +17204,9 @@
       <c r="B192" s="6" t="s">
         <v>379</v>
       </c>
+      <c r="C192">
+        <v>13</v>
+      </c>
       <c r="D192" s="7">
         <v>8000010120002</v>
       </c>
@@ -16706,6 +17279,9 @@
       <c r="B193" s="6" t="s">
         <v>381</v>
       </c>
+      <c r="C193">
+        <v>13</v>
+      </c>
       <c r="D193" s="7">
         <v>6953439855115</v>
       </c>
@@ -16778,6 +17354,9 @@
       <c r="B194" s="6" t="s">
         <v>383</v>
       </c>
+      <c r="C194">
+        <v>14</v>
+      </c>
       <c r="D194" s="7"/>
       <c r="E194" t="s">
         <v>384</v>
@@ -16852,6 +17431,9 @@
       <c r="B195" s="6" t="s">
         <v>385</v>
       </c>
+      <c r="C195">
+        <v>14</v>
+      </c>
       <c r="D195" s="7">
         <v>6797884908824</v>
       </c>
@@ -16924,6 +17506,9 @@
       <c r="B196" s="6" t="s">
         <v>386</v>
       </c>
+      <c r="C196">
+        <v>18</v>
+      </c>
       <c r="D196" s="7">
         <v>2082003770669</v>
       </c>
@@ -16996,6 +17581,9 @@
       <c r="B197" s="6" t="s">
         <v>388</v>
       </c>
+      <c r="C197">
+        <v>19</v>
+      </c>
       <c r="D197" s="7"/>
       <c r="E197" t="s">
         <v>389</v>
@@ -17070,6 +17658,9 @@
       <c r="B198" s="6" t="s">
         <v>390</v>
       </c>
+      <c r="C198">
+        <v>19</v>
+      </c>
       <c r="D198" s="7">
         <v>6797884908824</v>
       </c>
@@ -17142,6 +17733,9 @@
       <c r="B199" s="6" t="s">
         <v>391</v>
       </c>
+      <c r="C199">
+        <v>19</v>
+      </c>
       <c r="D199" s="7">
         <v>6797884908824</v>
       </c>
@@ -17214,6 +17808,9 @@
       <c r="B200" s="6" t="s">
         <v>392</v>
       </c>
+      <c r="C200">
+        <v>19</v>
+      </c>
       <c r="D200" s="7">
         <v>6797884908824</v>
       </c>
@@ -17286,6 +17883,9 @@
       <c r="B201" s="6" t="s">
         <v>393</v>
       </c>
+      <c r="C201">
+        <v>21</v>
+      </c>
       <c r="D201" s="7">
         <v>800010070068</v>
       </c>
@@ -17358,6 +17958,9 @@
       <c r="B202" s="6" t="s">
         <v>394</v>
       </c>
+      <c r="C202">
+        <v>29</v>
+      </c>
       <c r="D202" s="7">
         <v>7807356002473</v>
       </c>
@@ -17433,6 +18036,9 @@
       </c>
       <c r="B203" s="6" t="s">
         <v>396</v>
+      </c>
+      <c r="C203">
+        <v>29</v>
       </c>
       <c r="D203" s="7">
         <v>800010070068</v>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fa9d05d6761d51c/Escritorio/Data Relampago/Resultado Septiembre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{44C651CF-F341-4981-A4EF-3CCD3129A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A7D834-DCF0-4D57-877B-AF7BB7828F44}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{44C651CF-F341-4981-A4EF-3CCD3129A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E023013C-9897-4F27-98BD-1E1223D2E1D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21228" windowHeight="12456" xr2:uid="{8C751B5B-3616-4D2E-9E49-AB9750B9953D}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="452">
   <si>
     <t>Plataforma</t>
   </si>
@@ -1237,6 +1237,171 @@
   </si>
   <si>
     <t>2025-08-29 09:50:10 -0400</t>
+  </si>
+  <si>
+    <t>Shopify</t>
+  </si>
+  <si>
+    <t>2025-08-04 15:23:21 -0400</t>
+  </si>
+  <si>
+    <t>2025-08-04 15:25:03 -0400</t>
+  </si>
+  <si>
+    <t>Estación de Trabajo 150 Peral - Derecho</t>
+  </si>
+  <si>
+    <t>2025-08-05 16:52:48 -0400</t>
+  </si>
+  <si>
+    <t>Gabinete 180x80x45 Peral</t>
+  </si>
+  <si>
+    <t>2025-08-06 15:25:06 -0400</t>
+  </si>
+  <si>
+    <t>8000010100034</t>
+  </si>
+  <si>
+    <t>Gabinete Mural Dakar</t>
+  </si>
+  <si>
+    <t>2025-08-06 16:26:51 -0400</t>
+  </si>
+  <si>
+    <t>2082004550437</t>
+  </si>
+  <si>
+    <t>2025-08-07 09:43:09 -0400</t>
+  </si>
+  <si>
+    <t>Escalera Tijera 5 Peldaños</t>
+  </si>
+  <si>
+    <t>2025-08-08 17:50:08 -0400</t>
+  </si>
+  <si>
+    <t>2025-08-11 16:22:59 -0400</t>
+  </si>
+  <si>
+    <t>Estante 5 Niveles Nogal</t>
+  </si>
+  <si>
+    <t>2025-08-11 18:34:06 -0400</t>
+  </si>
+  <si>
+    <t>800010070068</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:26:22 -0400</t>
+  </si>
+  <si>
+    <t>2025-08-14 11:35:08 -0400</t>
+  </si>
+  <si>
+    <t>8000010070022</t>
+  </si>
+  <si>
+    <t>Estación de Trabajo 150 Jerez - Derecho</t>
+  </si>
+  <si>
+    <t>2025-08-17 13:23:01 -0400</t>
+  </si>
+  <si>
+    <t>Set de Ruedas Ping Pong Profesional</t>
+  </si>
+  <si>
+    <t>2025-08-17 19:34:28 -0400</t>
+  </si>
+  <si>
+    <t>2025-08-20 14:45:56 -0400</t>
+  </si>
+  <si>
+    <t>2025-08-24 09:09:14 -0400</t>
+  </si>
+  <si>
+    <t>Receptáculo Metacrilato 100x70x5cm</t>
+  </si>
+  <si>
+    <t>2025-08-24 13:46:32 -0400</t>
+  </si>
+  <si>
+    <t>Receptáculo Metacrilato 130x70x5cm</t>
+  </si>
+  <si>
+    <t>2025-08-25 00:58:53 -0400</t>
+  </si>
+  <si>
+    <t>8000010030015</t>
+  </si>
+  <si>
+    <t>Disco de Asado 55cm</t>
+  </si>
+  <si>
+    <t>2025-08-26 09:19:35 -0400</t>
+  </si>
+  <si>
+    <t>Estación de Trabajo 120cm Peral - Izquierdo</t>
+  </si>
+  <si>
+    <t>2025-08-26 10:40:25 -0400</t>
+  </si>
+  <si>
+    <t>2025-08-26 11:46:04 -0400</t>
+  </si>
+  <si>
+    <t>Cajonera Metálica 2 Cajones 1 Kardex Ruby</t>
+  </si>
+  <si>
+    <t>2025-08-26 11:50:36 -0400</t>
+  </si>
+  <si>
+    <t>SAN-AMG194</t>
+  </si>
+  <si>
+    <t>Urinario Muro</t>
+  </si>
+  <si>
+    <t>2025-08-27 11:28:03 -0400</t>
+  </si>
+  <si>
+    <t>Gabinete Base 2 Puertas - Dakar</t>
+  </si>
+  <si>
+    <t>2025-08-27 15:30:53 -0400</t>
+  </si>
+  <si>
+    <t>ESCRI-289</t>
+  </si>
+  <si>
+    <t>Escritorio T con Faldón - 150 / Blanco Mate / Chocolate Oak (Es una devolución)</t>
+  </si>
+  <si>
+    <t>2025-08-28 11:16:58 -0400</t>
+  </si>
+  <si>
+    <t>Receptáculo Metacrilato 90x70x5cm</t>
+  </si>
+  <si>
+    <t>2025-08-28 11:58:10 -0400</t>
+  </si>
+  <si>
+    <t>2025-08-28 19:11:22 -0400</t>
+  </si>
+  <si>
+    <t>8000010100045</t>
+  </si>
+  <si>
+    <t>Estante 5 Repisas Dakar</t>
+  </si>
+  <si>
+    <t>2025-08-31 20:00:42 -0400</t>
+  </si>
+  <si>
+    <t>8000010070032</t>
+  </si>
+  <si>
+    <t>Escritorio Base Corchete 150</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1510,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1438,8 +1603,28 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1458,6 +1643,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1749,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52EF972-4824-4558-BF5D-1AE07010ED86}">
   <dimension ref="A1:Z230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15769,7 +15958,7 @@
         <v>42900</v>
       </c>
       <c r="R173" s="14">
-        <f t="shared" ref="R173:R203" si="32">(Q173*G173)</f>
+        <f t="shared" ref="R173:R230" si="32">(Q173*G173)</f>
         <v>42900</v>
       </c>
       <c r="S173" s="14">
@@ -16260,7 +16449,7 @@
         <v>53.846153846153832</v>
       </c>
       <c r="U179" s="14">
-        <f t="shared" ref="U179:U203" si="37">(Y179/X179)*F179</f>
+        <f t="shared" ref="U179:U230" si="37">(Y179/X179)*F179</f>
         <v>4899.0286692708805</v>
       </c>
       <c r="V179" s="14">
@@ -18106,414 +18295,1997 @@
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A204" s="5"/>
-      <c r="D204" s="7"/>
+      <c r="A204" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B204" t="s">
+        <v>398</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="33">
+        <v>2082004550437</v>
+      </c>
+      <c r="E204" t="s">
+        <v>352</v>
+      </c>
+      <c r="F204">
+        <v>71990</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>71990</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
       <c r="L204" s="5"/>
-      <c r="M204" s="5"/>
+      <c r="M204" s="5">
+        <f>(F204/1.19)</f>
+        <v>60495.798319327732</v>
+      </c>
       <c r="N204" s="5"/>
-      <c r="O204" s="14"/>
-      <c r="P204" s="5"/>
-      <c r="Q204" s="33"/>
-      <c r="R204" s="38"/>
-      <c r="S204" s="5"/>
-      <c r="T204" s="39"/>
-      <c r="U204" s="11"/>
-      <c r="V204" s="5"/>
-      <c r="W204" s="12"/>
-      <c r="X204" s="20"/>
-      <c r="Y204" s="21"/>
+      <c r="O204" s="14">
+        <f>(M204*G204)</f>
+        <v>60495.798319327732</v>
+      </c>
+      <c r="P204" s="5">
+        <f>(O204-L204)</f>
+        <v>60495.798319327732</v>
+      </c>
+      <c r="Q204" s="38">
+        <v>42900</v>
+      </c>
+      <c r="R204" s="38">
+        <f t="shared" si="32"/>
+        <v>42900</v>
+      </c>
+      <c r="S204" s="5">
+        <f t="shared" ref="S204:S230" si="48">(M204-Q204)</f>
+        <v>17595.798319327732</v>
+      </c>
+      <c r="T204" s="39">
+        <f>(S204/Q204)*100</f>
+        <v>41.01584689819984</v>
+      </c>
+      <c r="U204" s="11">
+        <f t="shared" si="37"/>
+        <v>15549.626290763665</v>
+      </c>
+      <c r="V204" s="5">
+        <f>(S204-U204)</f>
+        <v>2046.1720285640677</v>
+      </c>
+      <c r="W204" s="12">
+        <f>(V204/Q204)*100</f>
+        <v>4.7696317682146097</v>
+      </c>
+      <c r="X204" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y204" s="40">
+        <v>6283029</v>
+      </c>
       <c r="Z204" s="5"/>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A205" s="5"/>
-      <c r="D205" s="7"/>
+      <c r="A205" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B205" t="s">
+        <v>399</v>
+      </c>
+      <c r="D205" s="33">
+        <v>8000010070073</v>
+      </c>
+      <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205">
+        <v>127990</v>
+      </c>
+      <c r="G205">
+        <v>2</v>
+      </c>
+      <c r="H205">
+        <v>255980</v>
+      </c>
+      <c r="I205">
+        <v>5989</v>
+      </c>
       <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
+      <c r="M205" s="5">
+        <f t="shared" ref="M205:M230" si="49">(F205/1.19)</f>
+        <v>107554.62184873949</v>
+      </c>
       <c r="N205" s="5"/>
-      <c r="O205" s="14"/>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="22"/>
-      <c r="R205" s="38"/>
-      <c r="S205" s="5"/>
-      <c r="T205" s="39"/>
-      <c r="U205" s="11"/>
-      <c r="V205" s="5"/>
-      <c r="W205" s="12"/>
-      <c r="X205" s="20"/>
-      <c r="Y205" s="21"/>
+      <c r="O205" s="14">
+        <f t="shared" ref="O205:O230" si="50">(M205*G205)</f>
+        <v>215109.24369747899</v>
+      </c>
+      <c r="P205" s="5">
+        <f t="shared" ref="P205:P230" si="51">(O205-L205)</f>
+        <v>215109.24369747899</v>
+      </c>
+      <c r="Q205" s="41">
+        <v>79769</v>
+      </c>
+      <c r="R205" s="38">
+        <f t="shared" si="32"/>
+        <v>159538</v>
+      </c>
+      <c r="S205" s="5">
+        <f t="shared" si="48"/>
+        <v>27785.621848739494</v>
+      </c>
+      <c r="T205" s="39">
+        <f t="shared" ref="T205:T230" si="52">(S205/Q205)*100</f>
+        <v>34.832606462083639</v>
+      </c>
+      <c r="U205" s="11">
+        <f t="shared" si="37"/>
+        <v>27645.460049379653</v>
+      </c>
+      <c r="V205" s="5">
+        <f>(S205-U205)</f>
+        <v>140.1617993598411</v>
+      </c>
+      <c r="W205" s="12">
+        <f t="shared" ref="W205:W230" si="53">(V205/Q205)*100</f>
+        <v>0.17570961070069965</v>
+      </c>
+      <c r="X205" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y205" s="21">
+        <v>6283029</v>
+      </c>
       <c r="Z205" s="5"/>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A206" s="5"/>
-      <c r="D206" s="40"/>
-      <c r="M206" s="5"/>
-      <c r="N206" s="5"/>
-      <c r="O206" s="14"/>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="33"/>
-      <c r="R206" s="38"/>
-      <c r="S206" s="5"/>
-      <c r="T206" s="39"/>
-      <c r="U206" s="11"/>
-      <c r="V206" s="5"/>
-      <c r="W206" s="12"/>
-      <c r="X206" s="20"/>
-      <c r="Y206" s="21"/>
-      <c r="Z206" s="5"/>
+      <c r="A206" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="B206" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="C206" s="31"/>
+      <c r="D206" s="42"/>
+      <c r="E206" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" s="31">
+        <v>215000</v>
+      </c>
+      <c r="G206" s="31">
+        <v>1</v>
+      </c>
+      <c r="H206" s="31">
+        <v>215000</v>
+      </c>
+      <c r="I206" s="31">
+        <v>0</v>
+      </c>
+      <c r="J206" s="31"/>
+      <c r="K206" s="31"/>
+      <c r="L206" s="36"/>
+      <c r="M206" s="5">
+        <f t="shared" si="49"/>
+        <v>180672.26890756303</v>
+      </c>
+      <c r="N206" s="36"/>
+      <c r="O206" s="43">
+        <f t="shared" si="50"/>
+        <v>180672.26890756303</v>
+      </c>
+      <c r="P206" s="5">
+        <f t="shared" si="51"/>
+        <v>180672.26890756303</v>
+      </c>
+      <c r="Q206" s="44">
+        <v>50000</v>
+      </c>
+      <c r="R206" s="45">
+        <f t="shared" si="32"/>
+        <v>50000</v>
+      </c>
+      <c r="S206" s="5">
+        <f t="shared" si="48"/>
+        <v>130672.26890756303</v>
+      </c>
+      <c r="T206" s="39">
+        <f t="shared" si="52"/>
+        <v>261.34453781512605</v>
+      </c>
+      <c r="U206" s="46">
+        <f t="shared" si="37"/>
+        <v>46439.361751829252</v>
+      </c>
+      <c r="V206" s="36">
+        <f>(S206-U206)</f>
+        <v>84232.907155733788</v>
+      </c>
+      <c r="W206" s="12">
+        <f t="shared" si="53"/>
+        <v>168.4658143114676</v>
+      </c>
+      <c r="X206" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y206" s="40">
+        <v>6283029</v>
+      </c>
+      <c r="Z206" s="36"/>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A207" s="5"/>
-      <c r="D207" s="7"/>
+      <c r="A207" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B207" t="s">
+        <v>403</v>
+      </c>
+      <c r="D207" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E207" t="s">
+        <v>405</v>
+      </c>
+      <c r="F207">
+        <v>61990</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>123980</v>
+      </c>
+      <c r="I207">
+        <v>12235</v>
+      </c>
       <c r="L207" s="5"/>
-      <c r="M207" s="5"/>
+      <c r="M207" s="5">
+        <f t="shared" si="49"/>
+        <v>52092.436974789918</v>
+      </c>
       <c r="N207" s="5"/>
-      <c r="O207" s="14"/>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="22"/>
-      <c r="R207" s="38"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="39"/>
-      <c r="U207" s="11"/>
-      <c r="V207" s="5"/>
-      <c r="W207" s="12"/>
-      <c r="X207" s="20"/>
-      <c r="Y207" s="21"/>
+      <c r="O207" s="14">
+        <f t="shared" si="50"/>
+        <v>104184.87394957984</v>
+      </c>
+      <c r="P207" s="5">
+        <f t="shared" si="51"/>
+        <v>104184.87394957984</v>
+      </c>
+      <c r="Q207">
+        <v>36809</v>
+      </c>
+      <c r="R207" s="38">
+        <f t="shared" si="32"/>
+        <v>73618</v>
+      </c>
+      <c r="S207" s="5">
+        <f t="shared" si="48"/>
+        <v>15283.436974789918</v>
+      </c>
+      <c r="T207" s="39">
+        <f t="shared" si="52"/>
+        <v>41.520924161998202</v>
+      </c>
+      <c r="U207" s="11">
+        <f t="shared" si="37"/>
+        <v>13389.655976725095</v>
+      </c>
+      <c r="V207" s="5">
+        <f t="shared" ref="V207:V230" si="54">(S207-U207)</f>
+        <v>1893.7809980648235</v>
+      </c>
+      <c r="W207" s="12">
+        <f t="shared" si="53"/>
+        <v>5.1448857563770369</v>
+      </c>
+      <c r="X207" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y207" s="21">
+        <v>6283029</v>
+      </c>
       <c r="Z207" s="5"/>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A208" s="5"/>
-      <c r="D208" s="7"/>
+      <c r="A208" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B208" t="s">
+        <v>406</v>
+      </c>
+      <c r="D208" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E208" t="s">
+        <v>352</v>
+      </c>
+      <c r="F208">
+        <v>71990</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>71990</v>
+      </c>
+      <c r="I208">
+        <v>5989</v>
+      </c>
       <c r="L208" s="5"/>
-      <c r="M208" s="5"/>
+      <c r="M208" s="5">
+        <f t="shared" si="49"/>
+        <v>60495.798319327732</v>
+      </c>
       <c r="N208" s="5"/>
-      <c r="O208" s="14"/>
-      <c r="P208" s="5"/>
-      <c r="R208" s="38"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="39"/>
-      <c r="U208" s="11"/>
-      <c r="V208" s="5"/>
-      <c r="W208" s="12"/>
-      <c r="X208" s="20"/>
-      <c r="Y208" s="21"/>
+      <c r="O208" s="14">
+        <f t="shared" si="50"/>
+        <v>60495.798319327732</v>
+      </c>
+      <c r="P208" s="5">
+        <f t="shared" si="51"/>
+        <v>60495.798319327732</v>
+      </c>
+      <c r="Q208" s="30">
+        <v>42900</v>
+      </c>
+      <c r="R208" s="38">
+        <f t="shared" si="32"/>
+        <v>42900</v>
+      </c>
+      <c r="S208" s="5">
+        <f t="shared" si="48"/>
+        <v>17595.798319327732</v>
+      </c>
+      <c r="T208" s="39">
+        <f t="shared" si="52"/>
+        <v>41.01584689819984</v>
+      </c>
+      <c r="U208" s="11">
+        <f t="shared" si="37"/>
+        <v>15549.626290763665</v>
+      </c>
+      <c r="V208" s="5">
+        <f t="shared" si="54"/>
+        <v>2046.1720285640677</v>
+      </c>
+      <c r="W208" s="12">
+        <f t="shared" si="53"/>
+        <v>4.7696317682146097</v>
+      </c>
+      <c r="X208" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y208" s="21">
+        <v>6283029</v>
+      </c>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D209" s="7"/>
-      <c r="P209" s="14"/>
-      <c r="T209" s="19"/>
-      <c r="U209" s="14"/>
-      <c r="V209" s="14"/>
-      <c r="W209" s="19"/>
-      <c r="X209" s="36"/>
-      <c r="Y209" s="36"/>
-    </row>
-    <row r="210" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D210" s="7"/>
-      <c r="M210" s="14"/>
-      <c r="N210" s="14"/>
-      <c r="O210" s="14"/>
-      <c r="P210" s="14"/>
-      <c r="Q210" s="37"/>
-      <c r="R210" s="14"/>
-      <c r="S210" s="14"/>
-      <c r="T210" s="19"/>
-      <c r="U210" s="14"/>
-      <c r="V210" s="14"/>
-      <c r="W210" s="19"/>
-      <c r="X210" s="20"/>
-      <c r="Y210" s="36"/>
-    </row>
-    <row r="211" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D211" s="7"/>
-      <c r="M211" s="14"/>
-      <c r="N211" s="14"/>
-      <c r="O211" s="14"/>
-      <c r="P211" s="14"/>
-      <c r="Q211" s="14"/>
-      <c r="R211" s="14"/>
-      <c r="S211" s="14"/>
-      <c r="T211" s="19"/>
-      <c r="U211" s="14"/>
-      <c r="V211" s="14"/>
-      <c r="W211" s="19"/>
-      <c r="X211" s="20"/>
-      <c r="Y211" s="36"/>
-    </row>
-    <row r="212" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D212" s="7"/>
-      <c r="P212" s="14"/>
-      <c r="S212" s="14"/>
-      <c r="T212" s="19"/>
-      <c r="U212" s="14"/>
-      <c r="V212" s="14"/>
-      <c r="W212" s="19"/>
-      <c r="X212" s="20"/>
-      <c r="Y212" s="36"/>
-    </row>
-    <row r="213" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D213" s="7"/>
-      <c r="M213" s="14"/>
-      <c r="N213" s="14"/>
-      <c r="O213" s="14"/>
-      <c r="P213" s="14"/>
-      <c r="Q213" s="14"/>
-      <c r="R213" s="14"/>
-      <c r="S213" s="14"/>
-      <c r="T213" s="19"/>
-      <c r="U213" s="14"/>
-      <c r="V213" s="14"/>
-      <c r="W213" s="19"/>
-      <c r="X213" s="20"/>
-      <c r="Y213" s="36"/>
-    </row>
-    <row r="214" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D214" s="7"/>
-      <c r="M214" s="14"/>
-      <c r="N214" s="14"/>
-      <c r="O214" s="14"/>
-      <c r="P214" s="14"/>
-      <c r="S214" s="14"/>
-      <c r="T214" s="19"/>
-      <c r="U214" s="14"/>
-      <c r="V214" s="14"/>
-      <c r="W214" s="19"/>
-      <c r="X214" s="20"/>
-      <c r="Y214" s="36"/>
-    </row>
-    <row r="215" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D215" s="7"/>
-      <c r="M215" s="14"/>
-      <c r="N215" s="14"/>
-      <c r="O215" s="14"/>
-      <c r="P215" s="14"/>
-      <c r="S215" s="14"/>
-      <c r="T215" s="19"/>
-      <c r="U215" s="14"/>
-      <c r="V215" s="14"/>
-      <c r="W215" s="19"/>
-      <c r="X215" s="20"/>
-      <c r="Y215" s="36"/>
-    </row>
-    <row r="216" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D216" s="7"/>
-      <c r="M216" s="14"/>
-      <c r="N216" s="14"/>
-      <c r="O216" s="14"/>
-      <c r="P216" s="14"/>
-      <c r="S216" s="14"/>
-      <c r="T216" s="19"/>
-      <c r="U216" s="14"/>
-      <c r="V216" s="14"/>
-      <c r="W216" s="19"/>
-      <c r="X216" s="20"/>
-      <c r="Y216" s="36"/>
-    </row>
-    <row r="217" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D217" s="7"/>
-      <c r="M217" s="14"/>
-      <c r="N217" s="14"/>
-      <c r="O217" s="14"/>
-      <c r="P217" s="14"/>
-      <c r="S217" s="14"/>
-      <c r="T217" s="19"/>
-      <c r="U217" s="14"/>
-      <c r="V217" s="14"/>
-      <c r="W217" s="19"/>
-      <c r="X217" s="20"/>
-      <c r="Y217" s="36"/>
-    </row>
-    <row r="218" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D218" s="7"/>
-      <c r="M218" s="14"/>
-      <c r="N218" s="14"/>
-      <c r="O218" s="14"/>
-      <c r="P218" s="14"/>
-      <c r="S218" s="14"/>
-      <c r="T218" s="19"/>
-      <c r="U218" s="14"/>
-      <c r="V218" s="14"/>
-      <c r="W218" s="19"/>
-      <c r="X218" s="20"/>
-      <c r="Y218" s="36"/>
-    </row>
-    <row r="219" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D219" s="7"/>
-      <c r="M219" s="14"/>
-      <c r="N219" s="14"/>
-      <c r="O219" s="14"/>
-      <c r="P219" s="14"/>
-      <c r="S219" s="14"/>
-      <c r="T219" s="19"/>
-      <c r="U219" s="14"/>
-      <c r="V219" s="14"/>
-      <c r="W219" s="19"/>
-      <c r="X219" s="20"/>
-      <c r="Y219" s="36"/>
-    </row>
-    <row r="220" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D220" s="7"/>
-      <c r="M220" s="14"/>
-      <c r="N220" s="14"/>
-      <c r="O220" s="14"/>
-      <c r="P220" s="14"/>
-      <c r="S220" s="14"/>
-      <c r="T220" s="19"/>
-      <c r="U220" s="14"/>
-      <c r="V220" s="14"/>
-      <c r="W220" s="19"/>
-      <c r="X220" s="20"/>
-      <c r="Y220" s="36"/>
-    </row>
-    <row r="221" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D221" s="7"/>
-      <c r="M221" s="14"/>
-      <c r="N221" s="14"/>
-      <c r="O221" s="14"/>
-      <c r="P221" s="14"/>
-      <c r="Q221" s="14"/>
-      <c r="R221" s="14"/>
-      <c r="S221" s="14"/>
-      <c r="T221" s="19"/>
-      <c r="U221" s="14"/>
-      <c r="V221" s="14"/>
-      <c r="W221" s="19"/>
-      <c r="X221" s="20"/>
-      <c r="Y221" s="36"/>
-    </row>
-    <row r="222" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D222" s="7"/>
-      <c r="M222" s="14"/>
-      <c r="N222" s="14"/>
-      <c r="O222" s="14"/>
-      <c r="P222" s="14"/>
-      <c r="S222" s="14"/>
-      <c r="T222" s="19"/>
-      <c r="U222" s="14"/>
-      <c r="V222" s="14"/>
-      <c r="W222" s="19"/>
-      <c r="X222" s="20"/>
-      <c r="Y222" s="36"/>
-    </row>
-    <row r="223" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D223" s="7"/>
-      <c r="M223" s="14"/>
-      <c r="N223" s="14"/>
-      <c r="O223" s="14"/>
-      <c r="P223" s="14"/>
-      <c r="S223" s="14"/>
-      <c r="T223" s="19"/>
-      <c r="U223" s="14"/>
-      <c r="V223" s="14"/>
-      <c r="W223" s="19"/>
-      <c r="X223" s="20"/>
-      <c r="Y223" s="36"/>
-    </row>
-    <row r="224" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D224" s="7"/>
-      <c r="M224" s="14"/>
-      <c r="N224" s="14"/>
-      <c r="O224" s="14"/>
-      <c r="P224" s="14"/>
-      <c r="Q224" s="14"/>
-      <c r="R224" s="14"/>
-      <c r="S224" s="14"/>
-      <c r="T224" s="19"/>
-      <c r="U224" s="14"/>
-      <c r="V224" s="14"/>
-      <c r="W224" s="19"/>
-      <c r="X224" s="20"/>
-      <c r="Y224" s="36"/>
-    </row>
-    <row r="225" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D225" s="7"/>
-      <c r="M225" s="14"/>
-      <c r="N225" s="14"/>
-      <c r="O225" s="14"/>
-      <c r="P225" s="14"/>
-      <c r="S225" s="14"/>
-      <c r="T225" s="19"/>
-      <c r="U225" s="14"/>
-      <c r="V225" s="14"/>
-      <c r="W225" s="19"/>
-      <c r="X225" s="20"/>
-      <c r="Y225" s="36"/>
-    </row>
-    <row r="226" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D226" s="7"/>
-      <c r="M226" s="14"/>
-      <c r="N226" s="14"/>
-      <c r="O226" s="14"/>
-      <c r="P226" s="14"/>
-      <c r="S226" s="14"/>
-      <c r="T226" s="19"/>
-      <c r="U226" s="14"/>
-      <c r="V226" s="14"/>
-      <c r="W226" s="19"/>
-      <c r="X226" s="20"/>
-      <c r="Y226" s="36"/>
-    </row>
-    <row r="227" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D227" s="7"/>
-      <c r="M227" s="14"/>
-      <c r="N227" s="14"/>
-      <c r="O227" s="14"/>
-      <c r="P227" s="14"/>
-      <c r="S227" s="14"/>
-      <c r="T227" s="19"/>
-      <c r="U227" s="14"/>
-      <c r="V227" s="14"/>
-      <c r="W227" s="19"/>
-      <c r="X227" s="20"/>
-      <c r="Y227" s="36"/>
-    </row>
-    <row r="228" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D228" s="7"/>
-      <c r="M228" s="14"/>
-      <c r="N228" s="14"/>
-      <c r="O228" s="14"/>
-      <c r="P228" s="14"/>
-      <c r="Q228" s="14"/>
-      <c r="R228" s="14"/>
-      <c r="S228" s="14"/>
-      <c r="T228" s="19"/>
-      <c r="U228" s="14"/>
-      <c r="V228" s="14"/>
-      <c r="W228" s="19"/>
-      <c r="X228" s="20"/>
-      <c r="Y228" s="36"/>
-    </row>
-    <row r="229" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D229" s="7"/>
-      <c r="M229" s="14"/>
-      <c r="N229" s="14"/>
-      <c r="O229" s="14"/>
-      <c r="P229" s="14"/>
-      <c r="Q229" s="14"/>
-      <c r="R229" s="14"/>
-      <c r="S229" s="14"/>
-      <c r="T229" s="19"/>
-      <c r="U229" s="14"/>
-      <c r="V229" s="14"/>
-      <c r="W229" s="19"/>
-      <c r="X229" s="20"/>
-      <c r="Y229" s="36"/>
-    </row>
-    <row r="230" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D230" s="7"/>
-      <c r="M230" s="14"/>
-      <c r="N230" s="14"/>
-      <c r="O230" s="14"/>
-      <c r="P230" s="14"/>
-      <c r="Q230" s="14"/>
-      <c r="R230" s="14"/>
-      <c r="S230" s="14"/>
-      <c r="T230" s="19"/>
-      <c r="U230" s="14"/>
-      <c r="V230" s="14"/>
-      <c r="W230" s="19"/>
-      <c r="X230" s="20"/>
-      <c r="Y230" s="36"/>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B209" t="s">
+        <v>408</v>
+      </c>
+      <c r="D209" s="33">
+        <v>8000010040007</v>
+      </c>
+      <c r="E209" t="s">
+        <v>409</v>
+      </c>
+      <c r="F209">
+        <v>49990</v>
+      </c>
+      <c r="G209">
+        <v>2</v>
+      </c>
+      <c r="H209">
+        <v>99980</v>
+      </c>
+      <c r="I209">
+        <v>12235</v>
+      </c>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5">
+        <f t="shared" si="49"/>
+        <v>42008.403361344543</v>
+      </c>
+      <c r="N209" s="5"/>
+      <c r="O209" s="14">
+        <f t="shared" si="50"/>
+        <v>84016.806722689085</v>
+      </c>
+      <c r="P209" s="5">
+        <f t="shared" si="51"/>
+        <v>84016.806722689085</v>
+      </c>
+      <c r="Q209" s="30">
+        <v>29583</v>
+      </c>
+      <c r="R209" s="38">
+        <f t="shared" si="32"/>
+        <v>59166</v>
+      </c>
+      <c r="S209" s="5">
+        <f t="shared" si="48"/>
+        <v>12425.403361344543</v>
+      </c>
+      <c r="T209" s="39">
+        <f t="shared" si="52"/>
+        <v>42.001836735099694</v>
+      </c>
+      <c r="U209" s="11">
+        <f t="shared" si="37"/>
+        <v>10797.69159987881</v>
+      </c>
+      <c r="V209" s="5">
+        <f t="shared" si="54"/>
+        <v>1627.7117614657327</v>
+      </c>
+      <c r="W209" s="12">
+        <f t="shared" si="53"/>
+        <v>5.5021862605744269</v>
+      </c>
+      <c r="X209" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y209" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z209" s="5"/>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" t="s">
+        <v>410</v>
+      </c>
+      <c r="D210" s="33">
+        <v>8000010070075</v>
+      </c>
+      <c r="E210" t="s">
+        <v>370</v>
+      </c>
+      <c r="F210">
+        <v>96990</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>96990</v>
+      </c>
+      <c r="I210">
+        <v>20464</v>
+      </c>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5">
+        <f t="shared" si="49"/>
+        <v>81504.201680672268</v>
+      </c>
+      <c r="N210" s="5"/>
+      <c r="O210" s="14">
+        <f t="shared" si="50"/>
+        <v>81504.201680672268</v>
+      </c>
+      <c r="P210" s="5">
+        <f t="shared" si="51"/>
+        <v>81504.201680672268</v>
+      </c>
+      <c r="Q210" s="22">
+        <v>55709</v>
+      </c>
+      <c r="R210" s="38">
+        <f t="shared" si="32"/>
+        <v>55709</v>
+      </c>
+      <c r="S210" s="5">
+        <f t="shared" si="48"/>
+        <v>25795.201680672268</v>
+      </c>
+      <c r="T210" s="39">
+        <f t="shared" si="52"/>
+        <v>46.303472833244655</v>
+      </c>
+      <c r="U210" s="11">
+        <f t="shared" si="37"/>
+        <v>20949.552075860087</v>
+      </c>
+      <c r="V210" s="5">
+        <f t="shared" si="54"/>
+        <v>4845.6496048121808</v>
+      </c>
+      <c r="W210" s="12">
+        <f t="shared" si="53"/>
+        <v>8.698145012138399</v>
+      </c>
+      <c r="X210" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y210" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z210" s="5"/>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B211" t="s">
+        <v>411</v>
+      </c>
+      <c r="D211" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E211" t="s">
+        <v>412</v>
+      </c>
+      <c r="F211">
+        <v>61990</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>61990</v>
+      </c>
+      <c r="I211">
+        <v>20464</v>
+      </c>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5">
+        <f t="shared" si="49"/>
+        <v>52092.436974789918</v>
+      </c>
+      <c r="N211" s="5"/>
+      <c r="O211" s="14">
+        <f t="shared" si="50"/>
+        <v>52092.436974789918</v>
+      </c>
+      <c r="P211" s="5">
+        <f t="shared" si="51"/>
+        <v>52092.436974789918</v>
+      </c>
+      <c r="Q211" s="22">
+        <v>36900</v>
+      </c>
+      <c r="R211" s="38">
+        <f t="shared" si="32"/>
+        <v>36900</v>
+      </c>
+      <c r="S211" s="5">
+        <f t="shared" si="48"/>
+        <v>15192.436974789918</v>
+      </c>
+      <c r="T211" s="39">
+        <f t="shared" si="52"/>
+        <v>41.171915920839886</v>
+      </c>
+      <c r="U211" s="11">
+        <f t="shared" si="37"/>
+        <v>13389.655976725095</v>
+      </c>
+      <c r="V211" s="5">
+        <f t="shared" si="54"/>
+        <v>1802.7809980648235</v>
+      </c>
+      <c r="W211" s="12">
+        <f t="shared" si="53"/>
+        <v>4.8855853606092774</v>
+      </c>
+      <c r="X211" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y211" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z211" s="5"/>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B212" t="s">
+        <v>413</v>
+      </c>
+      <c r="D212" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E212" t="s">
+        <v>368</v>
+      </c>
+      <c r="F212">
+        <v>78990</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>78990</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5">
+        <f t="shared" si="49"/>
+        <v>66378.151260504208</v>
+      </c>
+      <c r="N212" s="5"/>
+      <c r="O212" s="14">
+        <f t="shared" si="50"/>
+        <v>66378.151260504208</v>
+      </c>
+      <c r="P212" s="5">
+        <f t="shared" si="51"/>
+        <v>66378.151260504208</v>
+      </c>
+      <c r="Q212" s="22">
+        <v>49000</v>
+      </c>
+      <c r="R212" s="38">
+        <f t="shared" si="32"/>
+        <v>49000</v>
+      </c>
+      <c r="S212" s="5">
+        <f t="shared" si="48"/>
+        <v>17378.151260504208</v>
+      </c>
+      <c r="T212" s="39">
+        <f t="shared" si="52"/>
+        <v>35.465614817355529</v>
+      </c>
+      <c r="U212" s="11">
+        <f t="shared" si="37"/>
+        <v>17061.605510590663</v>
+      </c>
+      <c r="V212" s="5">
+        <f t="shared" si="54"/>
+        <v>316.54574991354457</v>
+      </c>
+      <c r="W212" s="12">
+        <f t="shared" si="53"/>
+        <v>0.64601173451743787</v>
+      </c>
+      <c r="X212" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y212" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z212" s="5"/>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B213" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E213" t="s">
+        <v>368</v>
+      </c>
+      <c r="F213">
+        <v>78990</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>78990</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5">
+        <f t="shared" si="49"/>
+        <v>66378.151260504208</v>
+      </c>
+      <c r="N213" s="5"/>
+      <c r="O213" s="14">
+        <f t="shared" si="50"/>
+        <v>66378.151260504208</v>
+      </c>
+      <c r="P213" s="5">
+        <f t="shared" si="51"/>
+        <v>66378.151260504208</v>
+      </c>
+      <c r="Q213" s="22">
+        <v>49000</v>
+      </c>
+      <c r="R213" s="38">
+        <f t="shared" si="32"/>
+        <v>49000</v>
+      </c>
+      <c r="S213" s="5">
+        <f t="shared" si="48"/>
+        <v>17378.151260504208</v>
+      </c>
+      <c r="T213" s="39">
+        <f t="shared" si="52"/>
+        <v>35.465614817355529</v>
+      </c>
+      <c r="U213" s="11">
+        <f t="shared" si="37"/>
+        <v>17061.605510590663</v>
+      </c>
+      <c r="V213" s="5">
+        <f t="shared" si="54"/>
+        <v>316.54574991354457</v>
+      </c>
+      <c r="W213" s="12">
+        <f t="shared" si="53"/>
+        <v>0.64601173451743787</v>
+      </c>
+      <c r="X213" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y213" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z213" s="5"/>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B214" t="s">
+        <v>416</v>
+      </c>
+      <c r="D214" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="E214" t="s">
+        <v>418</v>
+      </c>
+      <c r="F214">
+        <v>127990</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>127990</v>
+      </c>
+      <c r="I214">
+        <v>5989</v>
+      </c>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5">
+        <f t="shared" si="49"/>
+        <v>107554.62184873949</v>
+      </c>
+      <c r="N214" s="5"/>
+      <c r="O214" s="14">
+        <f t="shared" si="50"/>
+        <v>107554.62184873949</v>
+      </c>
+      <c r="P214" s="5">
+        <f t="shared" si="51"/>
+        <v>107554.62184873949</v>
+      </c>
+      <c r="Q214" s="22">
+        <v>65000</v>
+      </c>
+      <c r="R214" s="38">
+        <f t="shared" si="32"/>
+        <v>65000</v>
+      </c>
+      <c r="S214" s="5">
+        <f t="shared" si="48"/>
+        <v>42554.621848739494</v>
+      </c>
+      <c r="T214" s="39">
+        <f t="shared" si="52"/>
+        <v>65.468648998060758</v>
+      </c>
+      <c r="U214" s="11">
+        <f t="shared" si="37"/>
+        <v>27645.460049379653</v>
+      </c>
+      <c r="V214" s="5">
+        <f t="shared" si="54"/>
+        <v>14909.161799359841</v>
+      </c>
+      <c r="W214" s="12">
+        <f t="shared" si="53"/>
+        <v>22.937171999015142</v>
+      </c>
+      <c r="X214" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y214" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z214" s="5"/>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B215" t="s">
+        <v>419</v>
+      </c>
+      <c r="D215" s="33">
+        <v>8000010050029</v>
+      </c>
+      <c r="E215" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215">
+        <v>11990</v>
+      </c>
+      <c r="G215">
+        <v>2</v>
+      </c>
+      <c r="H215">
+        <v>23980</v>
+      </c>
+      <c r="I215">
+        <v>6665</v>
+      </c>
+      <c r="L215" s="5"/>
+      <c r="M215" s="5">
+        <f t="shared" si="49"/>
+        <v>10075.63025210084</v>
+      </c>
+      <c r="N215" s="5"/>
+      <c r="O215" s="14">
+        <f t="shared" si="50"/>
+        <v>20151.26050420168</v>
+      </c>
+      <c r="P215" s="5">
+        <f t="shared" si="51"/>
+        <v>20151.26050420168</v>
+      </c>
+      <c r="Q215" s="22">
+        <v>7466</v>
+      </c>
+      <c r="R215" s="38">
+        <f t="shared" si="32"/>
+        <v>14932</v>
+      </c>
+      <c r="S215" s="5">
+        <f t="shared" si="48"/>
+        <v>2609.6302521008402</v>
+      </c>
+      <c r="T215" s="39">
+        <f t="shared" si="52"/>
+        <v>34.953526012601664</v>
+      </c>
+      <c r="U215" s="11">
+        <f t="shared" si="37"/>
+        <v>2589.8044065322451</v>
+      </c>
+      <c r="V215" s="5">
+        <f t="shared" si="54"/>
+        <v>19.825845568595014</v>
+      </c>
+      <c r="W215" s="12">
+        <f t="shared" si="53"/>
+        <v>0.26554842711753301</v>
+      </c>
+      <c r="X215" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y215" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z215" s="5"/>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B216" t="s">
+        <v>421</v>
+      </c>
+      <c r="D216" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E216" t="s">
+        <v>79</v>
+      </c>
+      <c r="F216">
+        <v>39500</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>39500</v>
+      </c>
+      <c r="I216">
+        <v>5989</v>
+      </c>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5">
+        <f t="shared" si="49"/>
+        <v>33193.277310924372</v>
+      </c>
+      <c r="N216" s="5"/>
+      <c r="O216" s="14">
+        <f t="shared" si="50"/>
+        <v>33193.277310924372</v>
+      </c>
+      <c r="P216" s="5">
+        <f t="shared" si="51"/>
+        <v>33193.277310924372</v>
+      </c>
+      <c r="Q216" s="22">
+        <v>23966</v>
+      </c>
+      <c r="R216" s="38">
+        <f t="shared" si="32"/>
+        <v>23966</v>
+      </c>
+      <c r="S216" s="5">
+        <f t="shared" si="48"/>
+        <v>9227.2773109243717</v>
+      </c>
+      <c r="T216" s="39">
+        <f t="shared" si="52"/>
+        <v>38.50153263341555</v>
+      </c>
+      <c r="U216" s="11">
+        <f t="shared" si="37"/>
+        <v>8531.8827404523508</v>
+      </c>
+      <c r="V216" s="5">
+        <f t="shared" si="54"/>
+        <v>695.39457047202086</v>
+      </c>
+      <c r="W216" s="12">
+        <f t="shared" si="53"/>
+        <v>2.9015879599099592</v>
+      </c>
+      <c r="X216" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y216" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z216" s="5"/>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B217" t="s">
+        <v>422</v>
+      </c>
+      <c r="D217" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="E217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217">
+        <v>127990</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>127990</v>
+      </c>
+      <c r="I217">
+        <v>22868</v>
+      </c>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5">
+        <f t="shared" si="49"/>
+        <v>107554.62184873949</v>
+      </c>
+      <c r="N217" s="5"/>
+      <c r="O217" s="14">
+        <f t="shared" si="50"/>
+        <v>107554.62184873949</v>
+      </c>
+      <c r="P217" s="5">
+        <f t="shared" si="51"/>
+        <v>107554.62184873949</v>
+      </c>
+      <c r="Q217" s="22">
+        <v>65000</v>
+      </c>
+      <c r="R217" s="38">
+        <f t="shared" si="32"/>
+        <v>65000</v>
+      </c>
+      <c r="S217" s="5">
+        <f t="shared" si="48"/>
+        <v>42554.621848739494</v>
+      </c>
+      <c r="T217" s="39">
+        <f t="shared" si="52"/>
+        <v>65.468648998060758</v>
+      </c>
+      <c r="U217" s="11">
+        <f t="shared" si="37"/>
+        <v>27645.460049379653</v>
+      </c>
+      <c r="V217" s="5">
+        <f t="shared" si="54"/>
+        <v>14909.161799359841</v>
+      </c>
+      <c r="W217" s="12">
+        <f t="shared" si="53"/>
+        <v>22.937171999015142</v>
+      </c>
+      <c r="X217" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y217" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z217" s="5"/>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B218" t="s">
+        <v>423</v>
+      </c>
+      <c r="D218" s="33"/>
+      <c r="E218" t="s">
+        <v>424</v>
+      </c>
+      <c r="F218">
+        <v>112990</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>112990</v>
+      </c>
+      <c r="I218">
+        <v>34731</v>
+      </c>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5">
+        <f t="shared" si="49"/>
+        <v>94949.579831932773</v>
+      </c>
+      <c r="N218" s="5"/>
+      <c r="O218" s="14">
+        <f t="shared" si="50"/>
+        <v>94949.579831932773</v>
+      </c>
+      <c r="P218" s="5">
+        <f t="shared" si="51"/>
+        <v>94949.579831932773</v>
+      </c>
+      <c r="Q218">
+        <v>70372</v>
+      </c>
+      <c r="R218" s="38">
+        <f t="shared" si="32"/>
+        <v>70372</v>
+      </c>
+      <c r="S218" s="5">
+        <f t="shared" si="48"/>
+        <v>24577.579831932773</v>
+      </c>
+      <c r="T218" s="39">
+        <f t="shared" si="52"/>
+        <v>34.925225703309231</v>
+      </c>
+      <c r="U218" s="11">
+        <f t="shared" si="37"/>
+        <v>24405.504578321801</v>
+      </c>
+      <c r="V218" s="5">
+        <f t="shared" si="54"/>
+        <v>172.07525361097214</v>
+      </c>
+      <c r="W218" s="12">
+        <f t="shared" si="53"/>
+        <v>0.24452232935112281</v>
+      </c>
+      <c r="X218" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y218" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z218" s="5"/>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B219" t="s">
+        <v>425</v>
+      </c>
+      <c r="D219" s="33"/>
+      <c r="E219" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219">
+        <v>125990</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>125990</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5">
+        <f t="shared" si="49"/>
+        <v>105873.94957983194</v>
+      </c>
+      <c r="N219" s="5"/>
+      <c r="O219" s="14">
+        <f t="shared" si="50"/>
+        <v>105873.94957983194</v>
+      </c>
+      <c r="P219" s="5">
+        <f t="shared" si="51"/>
+        <v>105873.94957983194</v>
+      </c>
+      <c r="Q219">
+        <v>78651</v>
+      </c>
+      <c r="R219" s="38">
+        <f t="shared" si="32"/>
+        <v>78651</v>
+      </c>
+      <c r="S219" s="5">
+        <f t="shared" si="48"/>
+        <v>27222.94957983194</v>
+      </c>
+      <c r="T219" s="39">
+        <f t="shared" si="52"/>
+        <v>34.612337516156103</v>
+      </c>
+      <c r="U219" s="11">
+        <f t="shared" si="37"/>
+        <v>27213.46598657194</v>
+      </c>
+      <c r="V219" s="5">
+        <f t="shared" si="54"/>
+        <v>9.4835932599999069</v>
+      </c>
+      <c r="W219" s="12">
+        <f t="shared" si="53"/>
+        <v>1.2057816505829433E-2</v>
+      </c>
+      <c r="X219" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y219" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z219" s="5"/>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B220" t="s">
+        <v>427</v>
+      </c>
+      <c r="D220" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="E220" t="s">
+        <v>429</v>
+      </c>
+      <c r="F220">
+        <v>27990</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>27990</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5">
+        <f t="shared" si="49"/>
+        <v>23521.008403361346</v>
+      </c>
+      <c r="N220" s="5"/>
+      <c r="O220" s="14">
+        <f t="shared" si="50"/>
+        <v>23521.008403361346</v>
+      </c>
+      <c r="P220" s="5">
+        <f t="shared" si="51"/>
+        <v>23521.008403361346</v>
+      </c>
+      <c r="Q220" s="22">
+        <v>16900</v>
+      </c>
+      <c r="R220" s="38">
+        <f t="shared" si="32"/>
+        <v>16900</v>
+      </c>
+      <c r="S220" s="5">
+        <f t="shared" si="48"/>
+        <v>6621.0084033613457</v>
+      </c>
+      <c r="T220" s="39">
+        <f t="shared" si="52"/>
+        <v>39.177564516931042</v>
+      </c>
+      <c r="U220" s="11">
+        <f t="shared" si="37"/>
+        <v>6045.756908993957</v>
+      </c>
+      <c r="V220" s="5">
+        <f t="shared" si="54"/>
+        <v>575.25149436738866</v>
+      </c>
+      <c r="W220" s="12">
+        <f t="shared" si="53"/>
+        <v>3.4038549962567375</v>
+      </c>
+      <c r="X220" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y220" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z220" s="5"/>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B221" t="s">
+        <v>430</v>
+      </c>
+      <c r="D221" s="33">
+        <v>8000010070072</v>
+      </c>
+      <c r="E221" t="s">
+        <v>431</v>
+      </c>
+      <c r="F221">
+        <v>63990</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>63990</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5">
+        <f t="shared" si="49"/>
+        <v>53773.10924369748</v>
+      </c>
+      <c r="N221" s="5"/>
+      <c r="O221" s="14">
+        <f t="shared" si="50"/>
+        <v>53773.10924369748</v>
+      </c>
+      <c r="P221" s="5">
+        <f t="shared" si="51"/>
+        <v>53773.10924369748</v>
+      </c>
+      <c r="Q221" s="33">
+        <v>40435</v>
+      </c>
+      <c r="R221" s="38">
+        <f t="shared" si="32"/>
+        <v>40435</v>
+      </c>
+      <c r="S221" s="5">
+        <f t="shared" si="48"/>
+        <v>13338.10924369748</v>
+      </c>
+      <c r="T221" s="39">
+        <f t="shared" si="52"/>
+        <v>32.986544438475278</v>
+      </c>
+      <c r="U221" s="11">
+        <f t="shared" si="37"/>
+        <v>13821.650039532808</v>
+      </c>
+      <c r="V221" s="5">
+        <f t="shared" si="54"/>
+        <v>-483.54079583532803</v>
+      </c>
+      <c r="W221" s="12">
+        <f t="shared" si="53"/>
+        <v>-1.1958471518123606</v>
+      </c>
+      <c r="X221" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y221" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z221" s="5"/>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B222" t="s">
+        <v>432</v>
+      </c>
+      <c r="D222" s="33">
+        <v>8000010130053</v>
+      </c>
+      <c r="E222" t="s">
+        <v>287</v>
+      </c>
+      <c r="F222">
+        <v>37990</v>
+      </c>
+      <c r="G222">
+        <v>5</v>
+      </c>
+      <c r="H222">
+        <v>189950</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5">
+        <f t="shared" si="49"/>
+        <v>31924.36974789916</v>
+      </c>
+      <c r="N222" s="5"/>
+      <c r="O222" s="14">
+        <f t="shared" si="50"/>
+        <v>159621.84873949579</v>
+      </c>
+      <c r="P222" s="5">
+        <f t="shared" si="51"/>
+        <v>159621.84873949579</v>
+      </c>
+      <c r="Q222" s="22">
+        <v>27241</v>
+      </c>
+      <c r="R222" s="38">
+        <f t="shared" si="32"/>
+        <v>136205</v>
+      </c>
+      <c r="S222" s="5">
+        <f t="shared" si="48"/>
+        <v>4683.3697478991598</v>
+      </c>
+      <c r="T222" s="39">
+        <f t="shared" si="52"/>
+        <v>17.192356183323518</v>
+      </c>
+      <c r="U222" s="11">
+        <f t="shared" si="37"/>
+        <v>8205.727223032527</v>
+      </c>
+      <c r="V222" s="5">
+        <f t="shared" si="54"/>
+        <v>-3522.3574751333672</v>
+      </c>
+      <c r="W222" s="12">
+        <f t="shared" si="53"/>
+        <v>-12.930353052873855</v>
+      </c>
+      <c r="X222" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y222" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z222" s="5"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B223" t="s">
+        <v>433</v>
+      </c>
+      <c r="D223" s="47">
+        <v>6598332566554</v>
+      </c>
+      <c r="E223" t="s">
+        <v>434</v>
+      </c>
+      <c r="F223">
+        <v>95990</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>95990</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5">
+        <f t="shared" si="49"/>
+        <v>80663.865546218498</v>
+      </c>
+      <c r="N223" s="5"/>
+      <c r="O223" s="14">
+        <f t="shared" si="50"/>
+        <v>80663.865546218498</v>
+      </c>
+      <c r="P223" s="5">
+        <f t="shared" si="51"/>
+        <v>80663.865546218498</v>
+      </c>
+      <c r="Q223" s="33">
+        <v>52962</v>
+      </c>
+      <c r="R223" s="38">
+        <f t="shared" si="32"/>
+        <v>52962</v>
+      </c>
+      <c r="S223" s="5">
+        <f t="shared" si="48"/>
+        <v>27701.865546218498</v>
+      </c>
+      <c r="T223" s="39">
+        <f t="shared" si="52"/>
+        <v>52.305172663831613</v>
+      </c>
+      <c r="U223" s="11">
+        <f t="shared" si="37"/>
+        <v>20733.555044456232</v>
+      </c>
+      <c r="V223" s="5">
+        <f t="shared" si="54"/>
+        <v>6968.3105017622656</v>
+      </c>
+      <c r="W223" s="12">
+        <f t="shared" si="53"/>
+        <v>13.157189120052614</v>
+      </c>
+      <c r="X223" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y223" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z223" s="5"/>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B224" t="s">
+        <v>435</v>
+      </c>
+      <c r="D224" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E224" t="s">
+        <v>437</v>
+      </c>
+      <c r="F224">
+        <v>47990</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>47990</v>
+      </c>
+      <c r="I224">
+        <v>5989</v>
+      </c>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5">
+        <f t="shared" si="49"/>
+        <v>40327.731092436974</v>
+      </c>
+      <c r="N224" s="5"/>
+      <c r="O224" s="14">
+        <f t="shared" si="50"/>
+        <v>40327.731092436974</v>
+      </c>
+      <c r="P224" s="5">
+        <f t="shared" si="51"/>
+        <v>40327.731092436974</v>
+      </c>
+      <c r="Q224" s="22">
+        <v>29800</v>
+      </c>
+      <c r="R224" s="38">
+        <f t="shared" si="32"/>
+        <v>29800</v>
+      </c>
+      <c r="S224" s="5">
+        <f t="shared" si="48"/>
+        <v>10527.731092436974</v>
+      </c>
+      <c r="T224" s="39">
+        <f t="shared" si="52"/>
+        <v>35.327956686030113</v>
+      </c>
+      <c r="U224" s="11">
+        <f t="shared" si="37"/>
+        <v>10365.697537071097</v>
+      </c>
+      <c r="V224" s="5">
+        <f t="shared" si="54"/>
+        <v>162.03355536587696</v>
+      </c>
+      <c r="W224" s="12">
+        <f t="shared" si="53"/>
+        <v>0.54373676297274143</v>
+      </c>
+      <c r="X224" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y224" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z224" s="5"/>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B225" t="s">
+        <v>438</v>
+      </c>
+      <c r="D225" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E225" t="s">
+        <v>439</v>
+      </c>
+      <c r="F225">
+        <v>109000</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>109000</v>
+      </c>
+      <c r="I225">
+        <v>17215</v>
+      </c>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5">
+        <f t="shared" si="49"/>
+        <v>91596.638655462186</v>
+      </c>
+      <c r="N225" s="5"/>
+      <c r="O225" s="14">
+        <f t="shared" si="50"/>
+        <v>91596.638655462186</v>
+      </c>
+      <c r="P225" s="5">
+        <f t="shared" si="51"/>
+        <v>91596.638655462186</v>
+      </c>
+      <c r="Q225" s="33">
+        <v>67819</v>
+      </c>
+      <c r="R225" s="38">
+        <f t="shared" si="32"/>
+        <v>67819</v>
+      </c>
+      <c r="S225" s="5">
+        <f t="shared" si="48"/>
+        <v>23777.638655462186</v>
+      </c>
+      <c r="T225" s="39">
+        <f t="shared" si="52"/>
+        <v>35.060438307055819</v>
+      </c>
+      <c r="U225" s="11">
+        <f t="shared" si="37"/>
+        <v>23543.67642302041</v>
+      </c>
+      <c r="V225" s="5">
+        <f t="shared" si="54"/>
+        <v>233.962232441776</v>
+      </c>
+      <c r="W225" s="12">
+        <f t="shared" si="53"/>
+        <v>0.34498036308671021</v>
+      </c>
+      <c r="X225" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y225" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z225" s="5"/>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B226" t="s">
+        <v>440</v>
+      </c>
+      <c r="D226" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E226" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226">
+        <v>241850</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>241850</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5">
+        <f t="shared" si="49"/>
+        <v>203235.29411764708</v>
+      </c>
+      <c r="N226" s="5"/>
+      <c r="O226" s="14">
+        <f t="shared" si="50"/>
+        <v>203235.29411764708</v>
+      </c>
+      <c r="P226" s="5">
+        <f t="shared" si="51"/>
+        <v>203235.29411764708</v>
+      </c>
+      <c r="Q226" s="33">
+        <v>158458</v>
+      </c>
+      <c r="R226" s="38">
+        <f t="shared" si="32"/>
+        <v>158458</v>
+      </c>
+      <c r="S226" s="5">
+        <f t="shared" si="48"/>
+        <v>44777.294117647078</v>
+      </c>
+      <c r="T226" s="39">
+        <f t="shared" si="52"/>
+        <v>28.258146712470861</v>
+      </c>
+      <c r="U226" s="11">
+        <f t="shared" si="37"/>
+        <v>52238.882045022809</v>
+      </c>
+      <c r="V226" s="5">
+        <f t="shared" si="54"/>
+        <v>-7461.5879273757309</v>
+      </c>
+      <c r="W226" s="12">
+        <f t="shared" si="53"/>
+        <v>-4.708874230001471</v>
+      </c>
+      <c r="X226" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y226" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z226" s="5"/>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B227" t="s">
+        <v>443</v>
+      </c>
+      <c r="D227" s="33"/>
+      <c r="E227" t="s">
+        <v>444</v>
+      </c>
+      <c r="F227">
+        <v>103990</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>103990</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="L227" s="5"/>
+      <c r="M227" s="5">
+        <f t="shared" si="49"/>
+        <v>87386.554621848743</v>
+      </c>
+      <c r="N227" s="5"/>
+      <c r="O227" s="14">
+        <f t="shared" si="50"/>
+        <v>87386.554621848743</v>
+      </c>
+      <c r="P227" s="5">
+        <f t="shared" si="51"/>
+        <v>87386.554621848743</v>
+      </c>
+      <c r="Q227" s="22">
+        <v>64792</v>
+      </c>
+      <c r="R227" s="38">
+        <f t="shared" si="32"/>
+        <v>64792</v>
+      </c>
+      <c r="S227" s="5">
+        <f t="shared" si="48"/>
+        <v>22594.554621848743</v>
+      </c>
+      <c r="T227" s="39">
+        <f t="shared" si="52"/>
+        <v>34.872445088666417</v>
+      </c>
+      <c r="U227" s="11">
+        <f t="shared" si="37"/>
+        <v>22461.531295687088</v>
+      </c>
+      <c r="V227" s="5">
+        <f t="shared" si="54"/>
+        <v>133.02332616165586</v>
+      </c>
+      <c r="W227" s="12">
+        <f t="shared" si="53"/>
+        <v>0.20530825744174566</v>
+      </c>
+      <c r="X227" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y227" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z227" s="5"/>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B228" t="s">
+        <v>445</v>
+      </c>
+      <c r="D228" s="48">
+        <v>2082004550697</v>
+      </c>
+      <c r="E228" t="s">
+        <v>412</v>
+      </c>
+      <c r="F228">
+        <v>61990</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>213230</v>
+      </c>
+      <c r="I228">
+        <v>42105</v>
+      </c>
+      <c r="M228" s="5">
+        <f t="shared" si="49"/>
+        <v>52092.436974789918</v>
+      </c>
+      <c r="N228" s="5"/>
+      <c r="O228" s="14">
+        <f t="shared" si="50"/>
+        <v>52092.436974789918</v>
+      </c>
+      <c r="P228" s="5">
+        <f t="shared" si="51"/>
+        <v>52092.436974789918</v>
+      </c>
+      <c r="Q228" s="33">
+        <v>36900</v>
+      </c>
+      <c r="R228" s="38">
+        <f t="shared" si="32"/>
+        <v>36900</v>
+      </c>
+      <c r="S228" s="5">
+        <f t="shared" si="48"/>
+        <v>15192.436974789918</v>
+      </c>
+      <c r="T228" s="39">
+        <f t="shared" si="52"/>
+        <v>41.171915920839886</v>
+      </c>
+      <c r="U228" s="11">
+        <f t="shared" si="37"/>
+        <v>13389.655976725095</v>
+      </c>
+      <c r="V228" s="5">
+        <f t="shared" si="54"/>
+        <v>1802.7809980648235</v>
+      </c>
+      <c r="W228" s="12">
+        <f t="shared" si="53"/>
+        <v>4.8855853606092774</v>
+      </c>
+      <c r="X228" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y228" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z228" s="5"/>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B229" t="s">
+        <v>446</v>
+      </c>
+      <c r="D229" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E229" t="s">
+        <v>448</v>
+      </c>
+      <c r="F229">
+        <v>89250</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>89250</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="L229" s="5"/>
+      <c r="M229" s="5">
+        <f t="shared" si="49"/>
+        <v>75000</v>
+      </c>
+      <c r="N229" s="5"/>
+      <c r="O229" s="14">
+        <f t="shared" si="50"/>
+        <v>75000</v>
+      </c>
+      <c r="P229" s="5">
+        <f t="shared" si="51"/>
+        <v>75000</v>
+      </c>
+      <c r="Q229" s="22">
+        <v>53000</v>
+      </c>
+      <c r="R229" s="38">
+        <f t="shared" si="32"/>
+        <v>53000</v>
+      </c>
+      <c r="S229" s="5">
+        <f t="shared" si="48"/>
+        <v>22000</v>
+      </c>
+      <c r="T229" s="39">
+        <f t="shared" si="52"/>
+        <v>41.509433962264154</v>
+      </c>
+      <c r="U229" s="11">
+        <f t="shared" si="37"/>
+        <v>19277.735052794236</v>
+      </c>
+      <c r="V229" s="5">
+        <f t="shared" si="54"/>
+        <v>2722.2649472057637</v>
+      </c>
+      <c r="W229" s="12">
+        <f t="shared" si="53"/>
+        <v>5.1363489569920064</v>
+      </c>
+      <c r="X229" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y229" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z229" s="5"/>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B230" t="s">
+        <v>449</v>
+      </c>
+      <c r="D230" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="E230" t="s">
+        <v>451</v>
+      </c>
+      <c r="F230">
+        <v>186990</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>186990</v>
+      </c>
+      <c r="I230">
+        <v>15916</v>
+      </c>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5">
+        <f t="shared" si="49"/>
+        <v>157134.45378151262</v>
+      </c>
+      <c r="N230" s="5"/>
+      <c r="O230" s="14">
+        <f t="shared" si="50"/>
+        <v>157134.45378151262</v>
+      </c>
+      <c r="P230" s="5">
+        <f t="shared" si="51"/>
+        <v>157134.45378151262</v>
+      </c>
+      <c r="Q230">
+        <v>173458</v>
+      </c>
+      <c r="R230" s="38">
+        <f t="shared" si="32"/>
+        <v>173458</v>
+      </c>
+      <c r="S230" s="5">
+        <f t="shared" si="48"/>
+        <v>-16323.546218487376</v>
+      </c>
+      <c r="T230" s="39">
+        <f t="shared" si="52"/>
+        <v>-9.4106620729440991</v>
+      </c>
+      <c r="U230" s="11">
+        <f t="shared" si="37"/>
+        <v>40389.284902207219</v>
+      </c>
+      <c r="V230" s="5">
+        <f t="shared" si="54"/>
+        <v>-56712.831120694595</v>
+      </c>
+      <c r="W230" s="12">
+        <f t="shared" si="53"/>
+        <v>-32.69542547515514</v>
+      </c>
+      <c r="X230" s="20">
+        <v>29088497</v>
+      </c>
+      <c r="Y230" s="21">
+        <v>6283029</v>
+      </c>
+      <c r="Z230" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z230" xr:uid="{EC2FAC8B-B16C-4B00-B823-ED9A08020339}"/>
